--- a/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik august 2024.xlsx
+++ b/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik august 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -538,7 +538,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -550,22 +550,16 @@
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,7 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -665,11 +659,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0BBC7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -706,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -771,10 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -783,24 +768,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2809,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7AB91B-28FA-4663-A041-B668CC367C18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1321624F-BD32-4276-8B3C-5515857194EF}">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3145,9 +3140,6 @@
       <c r="G15" s="29">
         <v>1969.17</v>
       </c>
-      <c r="H15" s="37" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="22" t="s">
@@ -3588,7 +3580,7 @@
       <c r="B34" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="33" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="26">
@@ -3753,7 +3745,7 @@
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="36">
         <v>3100</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -3761,11 +3753,11 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="39">
+      <c r="F41" s="37">
         <f>SUM(F7:F40)</f>
         <v>894</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="38">
         <f>SUM(G7:G40)</f>
         <v>47681.560000000005</v>
       </c>
@@ -4450,7 +4442,7 @@
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="36">
         <v>3100</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -4458,11 +4450,11 @@
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="39">
+      <c r="F71" s="37">
         <f>SUM(F44:F70)</f>
         <v>1974</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="38">
         <f>SUM(G44:G70)</f>
         <v>59935.24999999999</v>
       </c>
@@ -4495,11 +4487,11 @@
         <v>154</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="39">
+      <c r="F73" s="37">
         <f>+F41+F71</f>
         <v>2868</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="38">
         <f>+G41+G71</f>
         <v>107616.81</v>
       </c>
@@ -4512,11 +4504,11 @@
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="41">
+      <c r="F74" s="39">
         <f>+F71/F73</f>
         <v>0.6882845188284519</v>
       </c>
-      <c r="G74" s="41">
+      <c r="G74" s="39">
         <f>+G71/G73</f>
         <v>0.5569320443525504</v>
       </c>
@@ -4528,7 +4520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1643EF3-0925-49C2-A065-479E65193AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD649FC-06CD-45F3-997B-84565B84B933}">
   <dimension ref="A2:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4586,20 +4578,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -4609,10 +4601,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
@@ -4621,7 +4613,7 @@
       <c r="E7" s="48">
         <v>1</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
@@ -4633,10 +4625,10 @@
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="5">
@@ -4645,7 +4637,7 @@
       <c r="E8" s="48">
         <v>10</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <f ref="F8:F40" t="shared" si="0">+D8*E8</f>
         <v>30</v>
       </c>
@@ -4657,10 +4649,10 @@
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5">
@@ -4669,7 +4661,7 @@
       <c r="E9" s="48">
         <v>1</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4681,10 +4673,10 @@
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
@@ -4693,7 +4685,7 @@
       <c r="E10" s="48">
         <v>4</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4705,10 +4697,10 @@
       <c r="A11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5">
@@ -4717,7 +4709,7 @@
       <c r="E11" s="48">
         <v>7</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4729,10 +4721,10 @@
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="5">
@@ -4741,7 +4733,7 @@
       <c r="E12" s="48">
         <v>6</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -4753,10 +4745,10 @@
       <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5">
@@ -4765,7 +4757,7 @@
       <c r="E13" s="48">
         <v>7</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -4777,10 +4769,10 @@
       <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5">
@@ -4789,7 +4781,7 @@
       <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4801,10 +4793,10 @@
       <c r="A15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
@@ -4813,7 +4805,7 @@
       <c r="E15" s="48">
         <v>7</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -4825,10 +4817,10 @@
       <c r="A16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5">
@@ -4837,7 +4829,7 @@
       <c r="E16" s="48">
         <v>30</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4849,10 +4841,10 @@
       <c r="A17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="5">
@@ -4861,7 +4853,7 @@
       <c r="E17" s="48">
         <v>1</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4873,10 +4865,10 @@
       <c r="A18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5">
@@ -4885,7 +4877,7 @@
       <c r="E18" s="48">
         <v>0</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4897,10 +4889,10 @@
       <c r="A19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="5">
@@ -4909,7 +4901,7 @@
       <c r="E19" s="48">
         <v>2</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4921,10 +4913,10 @@
       <c r="A20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5">
@@ -4933,7 +4925,7 @@
       <c r="E20" s="48">
         <v>5</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4945,10 +4937,10 @@
       <c r="A21" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="5">
@@ -4957,7 +4949,7 @@
       <c r="E21" s="48">
         <v>2</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4969,10 +4961,10 @@
       <c r="A22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="5">
@@ -4981,7 +4973,7 @@
       <c r="E22" s="48">
         <v>6</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4993,10 +4985,10 @@
       <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="45" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="5">
@@ -5005,7 +4997,7 @@
       <c r="E23" s="48">
         <v>10</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -5017,10 +5009,10 @@
       <c r="A24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="5">
@@ -5029,7 +5021,7 @@
       <c r="E24" s="48">
         <v>13</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -5041,10 +5033,10 @@
       <c r="A25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="5">
@@ -5053,7 +5045,7 @@
       <c r="E25" s="48">
         <v>2</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5065,10 +5057,10 @@
       <c r="A26" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="5">
@@ -5077,7 +5069,7 @@
       <c r="E26" s="48">
         <v>13</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -5089,10 +5081,10 @@
       <c r="A27" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="5">
@@ -5101,7 +5093,7 @@
       <c r="E27" s="48">
         <v>4</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5113,10 +5105,10 @@
       <c r="A28" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="5">
@@ -5125,7 +5117,7 @@
       <c r="E28" s="48">
         <v>2</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5137,10 +5129,10 @@
       <c r="A29" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="5">
@@ -5149,7 +5141,7 @@
       <c r="E29" s="48">
         <v>1</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5161,10 +5153,10 @@
       <c r="A30" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="5">
@@ -5173,7 +5165,7 @@
       <c r="E30" s="48">
         <v>1</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5185,10 +5177,10 @@
       <c r="A31" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="5">
@@ -5197,7 +5189,7 @@
       <c r="E31" s="48">
         <v>1</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5209,10 +5201,10 @@
       <c r="A32" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="5">
@@ -5221,7 +5213,7 @@
       <c r="E32" s="48">
         <v>9</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="50">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -5233,10 +5225,10 @@
       <c r="A33" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="5">
@@ -5245,7 +5237,7 @@
       <c r="E33" s="48">
         <v>1</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5257,19 +5249,19 @@
       <c r="A34" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="45" t="s">
         <v>77</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="48">
         <v>4</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5281,19 +5273,19 @@
       <c r="A35" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="48">
         <v>7</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5305,19 +5297,19 @@
       <c r="A36" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="45" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="48">
+        <v>1</v>
+      </c>
+      <c r="F36" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5329,19 +5321,19 @@
       <c r="A37" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="48">
+        <v>1</v>
+      </c>
+      <c r="F37" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5353,19 +5345,19 @@
       <c r="A38" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="45" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="48">
         <v>6</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -5377,19 +5369,19 @@
       <c r="A39" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="48">
         <v>461</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="50">
         <f t="shared" si="0"/>
         <v>461</v>
       </c>
@@ -5401,19 +5393,19 @@
       <c r="A40" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="45" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="48">
         <v>11</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="50">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -5425,15 +5417,15 @@
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="43">
         <v>3100</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="46" t="s">
         <v>93</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4">
+      <c r="E41" s="49"/>
+      <c r="F41" s="51">
         <f>SUM(F7:F40)</f>
         <v>894</v>
       </c>
@@ -5451,20 +5443,20 @@
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="40" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="47" t="s">
         <v>174</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>175</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>10</v>
@@ -5474,10 +5466,10 @@
       <c r="A44" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="5">
@@ -5486,7 +5478,7 @@
       <c r="E44" s="48">
         <v>182</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="50">
         <f ref="F44:F70" t="shared" si="1">+D44*E44</f>
         <v>910</v>
       </c>
@@ -5498,10 +5490,10 @@
       <c r="A45" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="5">
@@ -5510,7 +5502,7 @@
       <c r="E45" s="48">
         <v>13</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="50">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5522,10 +5514,10 @@
       <c r="A46" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="45" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="5">
@@ -5534,7 +5526,7 @@
       <c r="E46" s="48">
         <v>2</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="50">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5546,10 +5538,10 @@
       <c r="A47" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>102</v>
       </c>
       <c r="D47" s="5">
@@ -5558,7 +5550,7 @@
       <c r="E47" s="48">
         <v>6</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="50">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5570,10 +5562,10 @@
       <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D48" s="5">
@@ -5582,7 +5574,7 @@
       <c r="E48" s="48">
         <v>16</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="50">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -5594,10 +5586,10 @@
       <c r="A49" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="45" t="s">
         <v>107</v>
       </c>
       <c r="D49" s="5">
@@ -5606,7 +5598,7 @@
       <c r="E49" s="48">
         <v>1</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5618,10 +5610,10 @@
       <c r="A50" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="45" t="s">
         <v>109</v>
       </c>
       <c r="D50" s="5">
@@ -5630,7 +5622,7 @@
       <c r="E50" s="48">
         <v>2</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5642,10 +5634,10 @@
       <c r="A51" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="5">
@@ -5654,7 +5646,7 @@
       <c r="E51" s="48">
         <v>26</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="50">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -5666,10 +5658,10 @@
       <c r="A52" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
         <v>114</v>
       </c>
       <c r="D52" s="5">
@@ -5678,7 +5670,7 @@
       <c r="E52" s="48">
         <v>2</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5690,10 +5682,10 @@
       <c r="A53" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="45" t="s">
         <v>117</v>
       </c>
       <c r="D53" s="5">
@@ -5702,7 +5694,7 @@
       <c r="E53" s="48">
         <v>9</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5714,10 +5706,10 @@
       <c r="A54" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="45" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="5">
@@ -5726,7 +5718,7 @@
       <c r="E54" s="48">
         <v>3</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5738,10 +5730,10 @@
       <c r="A55" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="45" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="5">
@@ -5750,7 +5742,7 @@
       <c r="E55" s="48">
         <v>8</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="50">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5762,10 +5754,10 @@
       <c r="A56" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="45" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="5">
@@ -5774,7 +5766,7 @@
       <c r="E56" s="48">
         <v>14</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="50">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5786,10 +5778,10 @@
       <c r="A57" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="45" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="5">
@@ -5798,7 +5790,7 @@
       <c r="E57" s="48">
         <v>14</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="50">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5810,10 +5802,10 @@
       <c r="A58" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="45" t="s">
         <v>127</v>
       </c>
       <c r="D58" s="5">
@@ -5822,7 +5814,7 @@
       <c r="E58" s="48">
         <v>1</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5834,10 +5826,10 @@
       <c r="A59" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>129</v>
       </c>
       <c r="D59" s="5">
@@ -5846,7 +5838,7 @@
       <c r="E59" s="48">
         <v>5</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5858,10 +5850,10 @@
       <c r="A60" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D60" s="5">
@@ -5870,7 +5862,7 @@
       <c r="E60" s="48">
         <v>4</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="50">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5882,10 +5874,10 @@
       <c r="A61" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="45" t="s">
         <v>133</v>
       </c>
       <c r="D61" s="5">
@@ -5894,7 +5886,7 @@
       <c r="E61" s="48">
         <v>6</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="50">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5906,10 +5898,10 @@
       <c r="A62" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="45" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="5">
@@ -5918,7 +5910,7 @@
       <c r="E62" s="48">
         <v>15</v>
       </c>
-      <c r="F62" s="49">
+      <c r="F62" s="50">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5930,10 +5922,10 @@
       <c r="A63" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="45" t="s">
         <v>138</v>
       </c>
       <c r="D63" s="5">
@@ -5942,7 +5934,7 @@
       <c r="E63" s="48">
         <v>7</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="50">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -5954,10 +5946,10 @@
       <c r="A64" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="45" t="s">
         <v>140</v>
       </c>
       <c r="D64" s="5">
@@ -5966,7 +5958,7 @@
       <c r="E64" s="48">
         <v>2</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5978,10 +5970,10 @@
       <c r="A65" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D65" s="5">
@@ -5990,7 +5982,7 @@
       <c r="E65" s="48">
         <v>4</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="50">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6002,10 +5994,10 @@
       <c r="A66" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="45" t="s">
         <v>144</v>
       </c>
       <c r="D66" s="5">
@@ -6014,7 +6006,7 @@
       <c r="E66" s="48">
         <v>20</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="50">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -6026,10 +6018,10 @@
       <c r="A67" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="45" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="5">
@@ -6038,7 +6030,7 @@
       <c r="E67" s="48">
         <v>2</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F67" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6050,10 +6042,10 @@
       <c r="A68" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="45" t="s">
         <v>149</v>
       </c>
       <c r="D68" s="5">
@@ -6062,7 +6054,7 @@
       <c r="E68" s="48">
         <v>1</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="50">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6074,10 +6066,10 @@
       <c r="A69" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="45" t="s">
         <v>151</v>
       </c>
       <c r="D69" s="5">
@@ -6086,7 +6078,7 @@
       <c r="E69" s="48">
         <v>106</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="50">
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
@@ -6098,10 +6090,10 @@
       <c r="A70" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="45" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="5">
@@ -6110,7 +6102,7 @@
       <c r="E70" s="48">
         <v>135</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="50">
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
@@ -6122,15 +6114,15 @@
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="43">
         <v>3100</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="46" t="s">
         <v>93</v>
       </c>
       <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="4">
+      <c r="E71" s="49"/>
+      <c r="F71" s="51">
         <f>SUM(F44:F70)</f>
         <v>1974</v>
       </c>
